--- a/data/raw/Source.Datafile.Brand.Equity.xlsx
+++ b/data/raw/Source.Datafile.Brand.Equity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\data science\5 semestr\Data science professional project\Brand equity\Brand.Equity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\OneDrive\Dokumenty\repo_git\brand-equity\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE0FFA8-1523-489B-8010-E10495F3B828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13DCAA9-B6C2-4D90-8408-95F35CE99657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q10q11" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10438" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10458" uniqueCount="451">
   <si>
     <t>PrjName</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>q11 + q10</t>
   </si>
   <si>
-    <t>q11 - q10</t>
-  </si>
-  <si>
     <t>q10</t>
   </si>
   <si>
@@ -1326,6 +1323,69 @@
   </si>
   <si>
     <t>Tyrell Corporation</t>
+  </si>
+  <si>
+    <t>q11 &amp; q10</t>
+  </si>
+  <si>
+    <t>X6M1</t>
+  </si>
+  <si>
+    <t>X6M2</t>
+  </si>
+  <si>
+    <t>X6M3</t>
+  </si>
+  <si>
+    <t>X6M4</t>
+  </si>
+  <si>
+    <t>X6M5</t>
+  </si>
+  <si>
+    <t>X6M6</t>
+  </si>
+  <si>
+    <t>X6M7</t>
+  </si>
+  <si>
+    <t>X6M8</t>
+  </si>
+  <si>
+    <t>X6M9</t>
+  </si>
+  <si>
+    <t>X6M10</t>
+  </si>
+  <si>
+    <t>X7M1</t>
+  </si>
+  <si>
+    <t>X7M2</t>
+  </si>
+  <si>
+    <t>X7M3</t>
+  </si>
+  <si>
+    <t>X7M4</t>
+  </si>
+  <si>
+    <t>X7M5</t>
+  </si>
+  <si>
+    <t>X7M6</t>
+  </si>
+  <si>
+    <t>X7M7</t>
+  </si>
+  <si>
+    <t>X7M8</t>
+  </si>
+  <si>
+    <t>X7M9</t>
+  </si>
+  <si>
+    <t>X7M10</t>
   </si>
 </sst>
 </file>
@@ -10349,7 +10409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EV201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="BO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -89570,13 +89630,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
-        <v>429</v>
-      </c>
       <c r="C1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -89584,7 +89644,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2">
         <v>101</v>
@@ -89595,7 +89655,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -89606,7 +89666,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>103</v>
@@ -89617,7 +89677,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5">
         <v>104</v>
@@ -89628,7 +89688,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -89639,7 +89699,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7">
         <v>106</v>
@@ -89650,7 +89710,7 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -89661,7 +89721,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -89675,10 +89735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T31" sqref="A31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -89704,7 +89764,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -89712,7 +89772,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -89720,7 +89780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -89728,7 +89788,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -89736,7 +89796,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -89744,7 +89804,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -89752,7 +89812,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -89760,7 +89820,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -89768,7 +89828,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -89776,7 +89836,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -89784,7 +89844,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -89792,7 +89852,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -89800,7 +89860,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -89808,50 +89868,50 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>1</v>
       </c>
@@ -89859,41 +89919,185 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" t="s">
+        <v>436</v>
+      </c>
+      <c r="G30" t="s">
+        <v>437</v>
+      </c>
+      <c r="H30" t="s">
+        <v>438</v>
+      </c>
+      <c r="I30" t="s">
+        <v>439</v>
+      </c>
+      <c r="J30" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" t="s">
+        <v>441</v>
+      </c>
+      <c r="L30" t="s">
+        <v>442</v>
+      </c>
+      <c r="M30" t="s">
+        <v>443</v>
+      </c>
+      <c r="N30" t="s">
+        <v>444</v>
+      </c>
+      <c r="O30" t="s">
+        <v>445</v>
+      </c>
+      <c r="P30" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>447</v>
+      </c>
+      <c r="R30" t="s">
+        <v>448</v>
+      </c>
+      <c r="S30" t="s">
+        <v>449</v>
+      </c>
+      <c r="T30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="str">
+        <f>"'"&amp;A30&amp;"',"</f>
+        <v>'X6M1',</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:T31" si="0">"'"&amp;B30&amp;"',"</f>
+        <v>'X6M2',</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M3',</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M4',</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M5',</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M6',</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M7',</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M8',</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M9',</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X6M10',</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M1',</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M2',</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M3',</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M4',</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M5',</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M6',</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M7',</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M8',</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>'X7M9',</v>
+      </c>
+      <c r="T31" t="str">
+        <f>"'"&amp;T30&amp;"'"</f>
+        <v>'X7M10'</v>
       </c>
     </row>
   </sheetData>
@@ -89907,7 +90111,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -89920,14 +90124,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="15">
       <c r="B1" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="12.75">
       <c r="B3" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -89937,7 +90141,7 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10">
@@ -89958,46 +90162,46 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -90010,7 +90214,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -90041,43 +90245,43 @@
         <v>337</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -90090,7 +90294,7 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="B13" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -90118,44 +90322,44 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15">
@@ -90168,7 +90372,7 @@
     </row>
     <row r="18" spans="2:7" ht="15">
       <c r="B18" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -90178,7 +90382,7 @@
     </row>
     <row r="19" spans="2:7" ht="15">
       <c r="B19" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -90204,7 +90408,7 @@
     </row>
     <row r="22" spans="2:7" ht="15.75">
       <c r="B22" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -90214,7 +90418,7 @@
     </row>
     <row r="23" spans="2:7" ht="15.75">
       <c r="B23" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -90253,13 +90457,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" t="s">
         <v>427</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -90291,22 +90495,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="D1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" t="s">
         <v>421</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>423</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>424</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>425</v>
-      </c>
-      <c r="I1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -90314,28 +90518,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" t="s">
         <v>386</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>387</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>389</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>390</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>391</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>392</v>
-      </c>
-      <c r="I2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -90347,7 +90551,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -90377,7 +90581,7 @@
         <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -90407,7 +90611,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -90437,7 +90641,7 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -90467,7 +90671,7 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -90490,7 +90694,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -90502,7 +90706,7 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -90532,7 +90736,7 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10">
         <v>1</v>
